--- a/biology/Histoire de la zoologie et de la botanique/Samuel_J._Record/Samuel_J._Record.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Samuel_J._Record/Samuel_J._Record.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel James Record (10 mars 1881 — 3 février 1945) est un botaniste et universitaire américain spécialiste de l'étude du bois. Il est professeur au département de foresterie et d'études environnementale de l'université Yale.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Crawfordsville, Indiana, Record est diplômé de Wabash College en 1903 et obtient un master en foresterie à l'université Yale en 1905. Il travaille pour le service des forêts des États-Unis, puis obtient un poste au département de foresterie de l'université Yale (en) en 1910. Il est promu professeur en 1917 et est nommé doyen de la faculté en 1939.
-Grâce à ses séjours d'études en Amérique, notamment au Belize, au Guatemala, au Honduras, en Colombie et aux États-Unis, et ses correspondances avec d'autres chercheurs, il collecte environ 41 000 exemplaires de bois identifiés[1]. Initialement située à Yale, la collection de Samuel J. Record – dont le sigle est « SJRw » dans l'Index xylariorum[2] –  est conservée depuis 1969 au laboratoire des produits forestiers à Madison[3].
-Samuel Record a fondé la Société internationale des anatomistes du bois, et le magazine Tropical Woods en 1925[4].
+Grâce à ses séjours d'études en Amérique, notamment au Belize, au Guatemala, au Honduras, en Colombie et aux États-Unis, et ses correspondances avec d'autres chercheurs, il collecte environ 41 000 exemplaires de bois identifiés. Initialement située à Yale, la collection de Samuel J. Record – dont le sigle est « SJRw » dans l'Index xylariorum –  est conservée depuis 1969 au laboratoire des produits forestiers à Madison.
+Samuel Record a fondé la Société internationale des anatomistes du bois, et le magazine Tropical Woods en 1925.
 </t>
         </is>
       </c>
